--- a/doc/log/Ore_di_lavoro.xlsx
+++ b/doc/log/Ore_di_lavoro.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Ore trascorse sul progetto</t>
   </si>
@@ -42,6 +42,97 @@
   </si>
   <si>
     <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sistemazione documentazione</t>
+  </si>
+  <si>
+    <t>Documentazione backend</t>
+  </si>
+  <si>
+    <t>Documentazione Grok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding reader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentazione </t>
+  </si>
+  <si>
+    <t>studio individuale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studio indivivduale + coding </t>
+  </si>
+  <si>
+    <t>impostazioni database</t>
+  </si>
+  <si>
+    <t>codeing di prova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding </t>
+  </si>
+  <si>
+    <t>Documentazione java-grok e 
+logstash</t>
+  </si>
+  <si>
+    <t>library researching</t>
+  </si>
+  <si>
+    <t>Studio per il tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding-parser </t>
+  </si>
+  <si>
+    <t>testing study</t>
+  </si>
+  <si>
+    <t>coding backend</t>
+  </si>
+  <si>
+    <t>codeing</t>
+  </si>
+  <si>
+    <t>Testing study</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
+    <t>studi + test connessione dbms</t>
+  </si>
+  <si>
+    <t>grok demo</t>
+  </si>
+  <si>
+    <t>Connessione riuscita</t>
+  </si>
+  <si>
+    <t>spring initializing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commenti + codeing </t>
+  </si>
+  <si>
+    <t>code refactoring</t>
+  </si>
+  <si>
+    <t>update project arc</t>
+  </si>
+  <si>
+    <t>commenti + documentazione</t>
+  </si>
+  <si>
+    <t>Codeing + documentation</t>
+  </si>
+  <si>
+    <t>framework studying</t>
+  </si>
+  <si>
+    <t>documentation</t>
   </si>
   <si>
     <t>11:30~13:30</t>
@@ -58,7 +149,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -75,13 +166,36 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFF7981D"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -103,12 +217,33 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -331,6 +466,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="25.13"/>
+    <col customWidth="1" min="4" max="4" width="26.0"/>
+    <col customWidth="1" min="5" max="5" width="22.63"/>
+    <col customWidth="1" min="6" max="6" width="17.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1">
@@ -362,7 +503,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -374,7 +515,7 @@
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -396,7 +537,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -406,57 +547,61 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>44655.0</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>44656.0</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3">
+        <v>2.0</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>44657.0</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3">
+        <v>4.0</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>44658.0</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3">
         <v>4.0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>4.0</v>
       </c>
       <c r="E11" s="3">
@@ -473,50 +618,50 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>44659.0</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>44660.0</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>44661.0</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>44662.0</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3">
         <v>4.0</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>2.0</v>
       </c>
       <c r="E15" s="3">
@@ -529,48 +674,52 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>44663.0</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
         <v>4.0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>4.0</v>
       </c>
       <c r="E16" s="3">
         <v>1.0</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="3">
+        <v>4.0</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>44664.0</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>1.0</v>
       </c>
       <c r="E17" s="3">
         <v>2.0</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3">
+        <v>4.0</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>44665.0</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3">
         <v>2.0</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>2.0</v>
       </c>
       <c r="E18" s="3">
@@ -587,12 +736,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>44666.0</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3">
         <v>6.0</v>
       </c>
@@ -603,12 +752,12 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>44667.0</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -619,27 +768,27 @@
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="7">
         <f t="shared" ref="C21:H21" si="1">SUM(C8:C20)</f>
         <v>14</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="7">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H21" s="5">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -648,7 +797,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -660,61 +809,426 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="9">
+        <v>44668.0</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
+      <c r="A26" s="9">
+        <v>44669.0</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="9">
+        <v>44670.0</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="G29" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9">
+        <v>44671.0</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9">
+        <v>44672.0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37">
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9">
+        <v>44673.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9">
+        <v>44674.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9">
+        <v>44675.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="9">
+        <v>44676.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="10"/>
+      <c r="E49" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9">
+        <v>44677.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="10"/>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9">
+        <v>44678.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D53" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9">
+        <v>44679.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D56" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="10"/>
+      <c r="E58" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9">
+        <v>44680.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H59" s="12">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="10"/>
+      <c r="E61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9">
+        <v>44681.0</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63">
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64">
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="13">
+        <f t="shared" ref="C65:H65" si="2">SUM(C24:C62)</f>
+        <v>24</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E65" s="14">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G65" s="14">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H65" s="14">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -738,14 +1252,14 @@
   </cols>
   <sheetData>
     <row r="5" ht="45.0" customHeight="1">
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>44659.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
